--- a/medicine/Enfance/William_Campbell_Gault/William_Campbell_Gault.xlsx
+++ b/medicine/Enfance/William_Campbell_Gault/William_Campbell_Gault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Campbell Gault (Milwaukee, Wisconsin, 9 mars 1910 - Santa Barbara, Californie, 27 décembre 1995) est un écrivain de romans policiers et de romans sportifs pour la jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">William Campbell Gault commence à écrire en 1936 des nouvelles pour les Pulps. Il écrit suivant la demande des lecteurs des histoires policières, de science-fiction, sportives, d’amour, de western. Elles sont publiées dans Adventure, Dime Detective Magazine, Sartling Stories, Popular Detective, Popular Sport, Black Mask… puis Argosy, Ellery Queen's Mystery Magazine, Saint Detective Magazine (en), Alfred Hitchcock's Mystery Magazine… Il en écrit plus de 300 en utilisant à la demande des éditeurs les pseudonymes de Dial Forest, Roney Scott, Ray P. Shotwell.
 En 1952, il publie ses premiers romans sportifs pour la jeunesse principalement sur les sports automobiles et le football américain, mais aussi sur le golf et le hockey sur glace. Il en fait paraître une trentaine. Il écrit également ses deux premiers romans noirs : Don’t Cry for Me qui remporte l’Edgar du meilleur premier roman d'un auteur américain et The Bloody Bokhara.
@@ -552,17 +566,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série policière Joe Puma
-Shakedown (1953), première édition signée du pseudonyme Roney Scott
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série policière Joe Puma</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Shakedown (1953), première édition signée du pseudonyme Roney Scott
 End of a Call Girl ou Don't Call Tonight (1958)
 Night Lady (1958) Publié en français sous le titre La Prise du boa, Paris, Gallimard, Série noire no 565, 1960 ; réédition, Paris, Gallimard, Carré noir no 536, 1985
 Sweet Wild Wench (1959)
 The Wayward Widow (1959)
 Million Dollar Tramp (1960) Publié en français sous le titre Une riche nature, Paris, Gallimard, Série noire no 639, 1961
-The Hundred Dollar Girl (1961)
-Série policière Brock Callahan
-Ring Around Rosa ou Murder In The Raw (1955) Publié en français sous le titre Où peut se cacher Rosa ?, Paris, Fayard, L'Aventure criminelle no 91, 1960
+The Hundred Dollar Girl (1961)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série policière Brock Callahan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ring Around Rosa ou Murder In The Raw (1955) Publié en français sous le titre Où peut se cacher Rosa ?, Paris, Fayard, L'Aventure criminelle no 91, 1960
 Day of The Ram (1956)
 The Convertible Hearse (1957)
 Come Die With Me (1959)
@@ -575,9 +635,47 @@
 The Dead Seed (1985)
 The Chicano War (1986)
 Cat and Mouse (1988)
-Deaf Pigeon (1992)
-Autres romans policiers
-Don't Cry For Me (1952) Publié en français sous le titre Faut pas s’attendrir, Paris, Presses de la Cité, Un mystère no 141, 1953
+Deaf Pigeon (1992)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Don't Cry For Me (1952) Publié en français sous le titre Faut pas s’attendrir, Paris, Presses de la Cité, Un mystère no 141, 1953
 The Bloody Bokhara ou The Bloodstained Bokhara (1952) Publié en français sous le titre La Clé sous le tapis, Paris, Gallimard, Série noire no 195, 1954
 The Canvas Coffin (1953) Publié en français sous le titre Le Suaire enchanté, Paris, Gallimard, Série noire no 189, 1954
 Blood on the Boards (1953)
@@ -586,8 +684,47 @@
 Fair Prey (1956), signé Will Duke
 Phantom (1957)
 Death Out of Focus (1959) Publié en français sous le titre Tueur d’étoiles, Paris, Gallimard, Série noire no 573, 1960
-The Sweet Blonde Trap (1959)
-Romans sportifs de littérature d'enfance et de jeunesse
+The Sweet Blonde Trap (1959)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans sportifs de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Thunder Road (1952)
 Gallant Colt (1954)
 Mr. Quarterback (1955)
@@ -623,32 +760,295 @@
 Thin Ice (1978)
 The Sunday Cycles (1979)
 Super Bowl Bound (1980)
-Recueils de nouvelles
-Marksman ans Other Stories (2003), anthologie posthume
-Joe Pume, P.I. (2010), anthologie posthume
-Nouvelles
-Série Joe Puma
-The Unholy Three (1956)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Marksman ans Other Stories (2003), anthologie posthume
+Joe Pume, P.I. (2010), anthologie posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Joe Puma</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Unholy Three (1956)
 Deadly Beloved (1956)
 Don't Crowd Your Luck (1957) Publié en français sous le titre Une ressemblance frappante, Paris, Opta, Mystère magazine no 192, janvier 1964
 Death of a Big Wheel (1957)
 No Client of Mine (1957)
 Stolen Star (1957) Publié en français sous le titre Une minette à la redresse, Paris, Opta, Choc Suspense no 4, janvier – mars 1968
-Take Care of Yourself (1957)
-Série Brock Callahan
-April in Peril (1986)
-Série Saunders « Sandy » McKane
-Hibiscus and Homicide (1947)
-Série Mortimer Jones
-Hot-House Homicide (1946)
+Take Care of Yourself (1957)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Brock Callahan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>April in Peril (1986)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Saunders « Sandy » McKane</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hibiscus and Homicide (1947)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Mortimer Jones</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Hot-House Homicide (1946)
 The Cold, Cold Ground (1947)
 A Murder For Mac (1947)
 The Constant Shadow (1947)
 The Case of the Sleeping Beauty (1947)
-Red Runaround (1948)
-Série Pierre Apoyan
-The Kerman Kill (1987)
-Autres nouvelles
+Red Runaround (1948)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série Pierre Apoyan</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>The Kerman Kill (1987)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Autres nouvelles</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hell-Driver’s Partnership (1937)
 Mercury on Wheels (1938)
 Million to One Chauffeur (1938)
@@ -803,8 +1203,47 @@
 Hero of Destiny (1970)
 The Sister (1994)
 An Ordinary Man (1996)
-Nouvelles signées Roney Scott
-Power of Love (1937), en collaboration avec Larry Sternig
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nouvelles signées Roney Scott</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Power of Love (1937), en collaboration avec Larry Sternig
 Romantic Rogue (1937)
 Danger Curves (1938)
 Death Has Yellow Eyes (1942)
@@ -816,31 +1255,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>William_Campbell_Gault</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Campbell_Gault</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Les romans et nouvelles de William Campbell Gault n'ont pas été adaptés au cinéma et à la télévision, hormis deux exceptions.
 Une tentative d’écriture d’une série télévisée Adventure Showcase à partir du personnage de Brock Callahan. Un épisode « pilot » est réalisé par Don Siegel en 1959, sans qu’il y ait de suite.
